--- a/data-raw/Datalist_i.xlsx
+++ b/data-raw/Datalist_i.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A011BF-4B66-4992-89AB-6284292A3AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="660" windowWidth="21600" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="660" windowWidth="21600" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="modello_del_foglio_di_dati" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Numero progressivo</t>
+      <t>Età</t>
     </r>
     <r>
       <rPr>
@@ -47,8 +46,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(numero del personale, ID, AVS)</t>
-    </r>
+      <t>(giorno e anno di nascita, età)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sesso</t>
   </si>
   <si>
     <r>
@@ -59,7 +61,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Età</t>
+      <t>Anni di servizio</t>
     </r>
     <r>
       <rPr>
@@ -78,11 +80,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(giorno e anno di nascita, età)</t>
-    </r>
-  </si>
-  <si>
-    <t>Sesso</t>
+      <t>(data e anno di entrata in servizio, numero di anni di servizio)</t>
+    </r>
+  </si>
+  <si>
+    <t>Formazione</t>
   </si>
   <si>
     <r>
@@ -93,7 +95,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Anni di servizio</t>
+      <t>Funzione</t>
     </r>
     <r>
       <rPr>
@@ -112,11 +114,25 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(data e anno di entrata in servizio, numero di anni di servizio)</t>
-    </r>
-  </si>
-  <si>
-    <t>Formazione</t>
+      <t>(professione esercitata)</t>
+    </r>
+  </si>
+  <si>
+    <t>Livello di competenza/livello di qualifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posizione professionale </t>
+  </si>
+  <si>
+    <t>DIP con salario mensile:
+grado di occupazione in %</t>
+  </si>
+  <si>
+    <t>DIP con salario orario:
+numero di ore pagate nel mese di riferimento</t>
+  </si>
+  <si>
+    <t>Salario di base</t>
   </si>
   <si>
     <r>
@@ -127,7 +143,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Funzione</t>
+      <t>Indennità</t>
     </r>
     <r>
       <rPr>
@@ -146,25 +162,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(professione esercitata)</t>
-    </r>
-  </si>
-  <si>
-    <t>Livello di competenza/livello di qualifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posizione professionale </t>
-  </si>
-  <si>
-    <t>DIP con salario mensile:
-grado di occupazione in %</t>
-  </si>
-  <si>
-    <t>DIP con salario orario:
-numero di ore pagate nel mese di riferimento</t>
-  </si>
-  <si>
-    <t>Salario di base</t>
+      <t>(lavoro a turni, lavoro domenicale e notturno nonché altre indennità per faticosità del lavoro, 1/12 del totale annuo)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -175,7 +174,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Indennità</t>
+      <t>13ª mensilità</t>
     </r>
     <r>
       <rPr>
@@ -194,7 +193,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(lavoro a turni, lavoro domenicale e notturno nonché altre indennità per faticosità del lavoro, 1/12 del totale annuo)</t>
+      <t>(di solito 1/12 del salario base)</t>
     </r>
   </si>
   <si>
@@ -206,7 +205,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>13ª mensilità</t>
+      <t>Pagamenti straordinari</t>
     </r>
     <r>
       <rPr>
@@ -225,7 +224,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(di solito 1/12 del salario base)</t>
+      <t>(1/12 del totale annuo)</t>
     </r>
   </si>
   <si>
@@ -237,12 +236,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Pagamenti straordinari</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
+      <t>Durata normale del lavoro settimanale</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -256,7 +256,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(1/12 del totale annuo)</t>
+      <t>(per impiego a tempo pieno/grado di occupazione al 100%)</t>
     </r>
   </si>
   <si>
@@ -268,7 +268,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Durata normale del lavoro settimanale</t>
+      <t>Orario di lavoro previsto nell’anno di riferimento</t>
     </r>
     <r>
       <rPr>
@@ -292,6 +292,27 @@
     </r>
   </si>
   <si>
+    <t>Universo di base</t>
+  </si>
+  <si>
+    <t>Osservazioni</t>
+  </si>
+  <si>
+    <t>Aggiunta1</t>
+  </si>
+  <si>
+    <t>Aggiunta2</t>
+  </si>
+  <si>
+    <t>Aggiunta3</t>
+  </si>
+  <si>
+    <t>Aggiunta4</t>
+  </si>
+  <si>
+    <t>Aggiunta5</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -300,55 +321,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Orario di lavoro previsto nell’anno di riferimento</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
+      <t>Numero progressivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(per impiego a tempo pieno/grado di occupazione al 100%)</t>
-    </r>
-  </si>
-  <si>
-    <t>Universo di base</t>
-  </si>
-  <si>
-    <t>Osservazioni</t>
-  </si>
-  <si>
-    <t>Aggiunta1</t>
-  </si>
-  <si>
-    <t>Aggiunta2</t>
-  </si>
-  <si>
-    <t>Aggiunta3</t>
-  </si>
-  <si>
-    <t>Aggiunta4</t>
-  </si>
-  <si>
-    <t>Aggiunta5</t>
+(numero del personale, ID, ecc.)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,8 +520,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard_Lohnfragebogen" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard_Lohnfragebogen" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,7 +544,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -629,23 +619,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -681,23 +654,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -873,7 +829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:W161"/>
   <sheetViews>
@@ -903,73 +859,73 @@
   <sheetData>
     <row r="1" spans="1:23" customFormat="1" ht="216.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1133,8 +1089,8 @@
     <row r="160" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="161" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:W161" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W161">
+  <autoFilter ref="A1:W161">
+    <sortState ref="A2:W161">
       <sortCondition ref="F1:F161"/>
     </sortState>
   </autoFilter>
